--- a/data/trans_camb/CoTrAQ_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/CoTrAQ_R2-Edad-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.322059912243788</v>
+        <v>0.5026033458052334</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.60784819707777</v>
+        <v>5.381279715193462</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.457002199318701</v>
+        <v>5.43461922658391</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>29.39662835301539</v>
+        <v>28.47934641773351</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>27.92688568080667</v>
+        <v>28.01613774466608</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24.90622012426259</v>
+        <v>24.21091021830559</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.00081164237112805</v>
+        <v>-0.05339393155812039</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2821982991066048</v>
+        <v>0.2669474207151182</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3030295579632888</v>
+        <v>0.2608281041120352</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.305368290746968</v>
+        <v>2.222490276013554</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.986440941232163</v>
+        <v>4.053818264618657</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.229631806212801</v>
+        <v>2.288177646858574</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.720927957690695</v>
+        <v>5.026067007466053</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.623403468160565</v>
+        <v>4.426768229541855</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.672635011706091</v>
+        <v>6.778872584160774</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.04806439702044</v>
+        <v>18.34560721145787</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.88973442416492</v>
+        <v>18.75783500083878</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.53058407599034</v>
+        <v>16.49107894636849</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2959413600857083</v>
+        <v>0.2408585710839118</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.19046291152468</v>
+        <v>0.210593201785314</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3433384824067858</v>
+        <v>0.3437706128874664</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.3297191671543</v>
+        <v>1.332505020143254</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.294837474289884</v>
+        <v>1.284523690133699</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.101029758179518</v>
+        <v>1.081381880059348</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.927119147216441</v>
+        <v>2.050037700784644</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.034206358306756</v>
+        <v>1.042851552787191</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.881305533316262</v>
+        <v>3.406800811898155</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.9479385630455</v>
+        <v>12.53028331992379</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.0634770158473</v>
+        <v>15.34499556320769</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.8622393084314</v>
+        <v>11.90566365498147</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1163031232679702</v>
+        <v>0.1275799912195805</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.08535285921200626</v>
+        <v>0.05043175187694875</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.227010889020981</v>
+        <v>0.1914316317555998</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.070530818918196</v>
+        <v>1.156462523120382</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.090778667929641</v>
+        <v>1.142944208833707</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9045990042618275</v>
+        <v>0.931171005650596</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.335213286172423</v>
+        <v>7.704984968738347</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.519924562806979</v>
+        <v>3.467731580755275</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8.260258106122864</v>
+        <v>8.541880129951116</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>19.04437097617703</v>
+        <v>18.73841441428952</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>20.12512208589419</v>
+        <v>20.9148885179849</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17.66030940554298</v>
+        <v>17.69768220043225</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.599807586480078</v>
+        <v>0.5865817428014363</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1467906387655046</v>
+        <v>0.1515439981344278</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5392430830390395</v>
+        <v>0.5236369574210948</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.647602019774604</v>
+        <v>2.534833978845283</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.372207006947051</v>
+        <v>1.444745547663695</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.614190488226624</v>
+        <v>1.585241354955998</v>
       </c>
     </row>
     <row r="28">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>4.484986389799506</v>
+        <v>4.485952242870617</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.480608128042389</v>
+        <v>3.574837846838633</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7.554808381850813</v>
+        <v>7.834064447301009</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>22.40821256807007</v>
+        <v>22.54959404430329</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>28.78419510437289</v>
+        <v>28.91810094941945</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>22.05177213257817</v>
+        <v>22.39041173789489</v>
       </c>
     </row>
     <row r="31">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2209499971663245</v>
+        <v>0.240117915606416</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.08795688668299513</v>
+        <v>0.1337314638248385</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.502824067887928</v>
+        <v>0.5353834197160855</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.078678045527814</v>
+        <v>3.305477500696473</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>4.079512364669331</v>
+        <v>3.955001536696212</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.724472627199462</v>
+        <v>2.602975657460988</v>
       </c>
     </row>
     <row r="34">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>7.915251602248803</v>
+        <v>7.683050980165705</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>8.026861623366109</v>
+        <v>7.78138798489357</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>8.868844404824374</v>
+        <v>9.268507103027888</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>14.10549117695863</v>
+        <v>13.8580813288632</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>15.9047547219738</v>
+        <v>15.6206305499603</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>13.92540152392031</v>
+        <v>14.03471002900525</v>
       </c>
     </row>
     <row r="37">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.5473338494392006</v>
+        <v>0.5059835671267424</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.4278655457596545</v>
+        <v>0.4066640551690561</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.5493681057105346</v>
+        <v>0.5790090161407263</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.187255290312587</v>
+        <v>1.145568440621801</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.078893959146785</v>
+        <v>1.03198705221629</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.027749974657057</v>
+        <v>1.028667151675808</v>
       </c>
     </row>
     <row r="40">
